--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423972.62</v>
+        <v>623773.36</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70662.10000000001</v>
+        <v>56706.67</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92632.31</v>
+        <v>92599.52</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50831.75</v>
+        <v>50862.1</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167946.41</v>
+        <v>175086.4</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76402.16</v>
+        <v>79110.16</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3976.99</v>
+        <v>1929.17</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,57 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32183</v>
+        <v>47411.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Gainvest</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>39323.77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22969.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>63039.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>41725.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9716.139999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,138 +436,182 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>623773.36</v>
+        <v>49892.16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49975.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56706.67</v>
+        <v>92545.92</v>
+      </c>
+      <c r="C3" t="n">
+        <v>92655.67999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92599.52</v>
+        <v>51131.68</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50825.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50862.1</v>
+        <v>63002.76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63076.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175086.4</v>
+        <v>41666.63</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42184.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79110.16</v>
+        <v>22951.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22975.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1929.17</v>
+        <v>9741.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9677.809999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47411.95</v>
+        <v>184855.48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>181878.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39323.77</v>
+        <v>96457.50999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>96412.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22969.33</v>
+        <v>41763.13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38574.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63039.07</v>
+        <v>808.17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>901.3099999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41725.75</v>
+        <v>59528.77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>59012.43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9716.139999999999</v>
+        <v>654816.4399999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>649136.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,170 +443,131 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49892.16</v>
-      </c>
-      <c r="C2" t="n">
-        <v>49975.45</v>
+        <v>649136.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92545.92</v>
-      </c>
-      <c r="C3" t="n">
-        <v>92655.67999999999</v>
+        <v>59012.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51131.68</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50825.22</v>
+        <v>49975.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63002.76</v>
-      </c>
-      <c r="C5" t="n">
-        <v>63076.57</v>
+        <v>92655.67999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41666.63</v>
-      </c>
-      <c r="C6" t="n">
-        <v>42184.27</v>
+        <v>50825.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22951.52</v>
-      </c>
-      <c r="C7" t="n">
         <v>22975.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9741.48</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9677.809999999999</v>
+        <v>63076.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>184855.48</v>
-      </c>
-      <c r="C9" t="n">
-        <v>181878.46</v>
+        <v>42184.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96457.50999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>96412.03</v>
+        <v>9677.809999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41763.13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>38574.04</v>
+        <v>181878.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>808.17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>901.3099999999999</v>
+        <v>96412.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59528.77</v>
-      </c>
-      <c r="C13" t="n">
-        <v>59012.43</v>
+        <v>38574.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>654816.4399999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>649136.72</v>
+        <v>901.3099999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,135 +439,169 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649136.72</v>
+        <v>49975.45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49943.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59012.43</v>
+        <v>92655.67999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>92648.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49975.45</v>
+        <v>50825.22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50658.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92655.67999999999</v>
-      </c>
+        <v>22975.88</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50825.22</v>
-      </c>
+        <v>63076.57</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22975.88</v>
-      </c>
+        <v>42184.27</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63076.57</v>
-      </c>
+        <v>9677.809999999999</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42184.27</v>
-      </c>
+        <v>181878.46</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9677.809999999999</v>
+        <v>96412.03</v>
+      </c>
+      <c r="C10" t="n">
+        <v>101172.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181878.46</v>
+        <v>38574.04</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47376.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96412.03</v>
+        <v>901.3099999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>943.59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38574.04</v>
+        <v>59012.43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>57123.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>901.3099999999999</v>
+        <v>649136.72</v>
+      </c>
+      <c r="C14" t="n">
+        <v>342742.97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>49943.79</v>
       </c>
+      <c r="D2" t="n">
+        <v>47531.47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>92648.34</v>
       </c>
+      <c r="D3" t="n">
+        <v>92587.41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>50658.61</v>
       </c>
+      <c r="D4" t="n">
+        <v>50792.47</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
         <v>22975.88</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>22950.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -505,6 +522,9 @@
         <v>63076.57</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>61618.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -516,6 +536,9 @@
         <v>42184.27</v>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>42318.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -527,6 +550,9 @@
         <v>9677.809999999999</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>9860.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -538,6 +564,9 @@
         <v>181878.46</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>197720.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -551,6 +580,9 @@
       <c r="C10" t="n">
         <v>101172.07</v>
       </c>
+      <c r="D10" t="n">
+        <v>102252.35</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -564,6 +596,9 @@
       <c r="C11" t="n">
         <v>47376.57</v>
       </c>
+      <c r="D11" t="n">
+        <v>47383.55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -577,6 +612,9 @@
       <c r="C12" t="n">
         <v>943.59</v>
       </c>
+      <c r="D12" t="n">
+        <v>1007.28</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -590,6 +628,9 @@
       <c r="C13" t="n">
         <v>57123.83</v>
       </c>
+      <c r="D13" t="n">
+        <v>61456.64</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -602,6 +643,9 @@
       </c>
       <c r="C14" t="n">
         <v>342742.97</v>
+      </c>
+      <c r="D14" t="n">
+        <v>676023.0600000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>47531.47</v>
       </c>
+      <c r="E2" t="n">
+        <v>47776.45</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>92587.41</v>
       </c>
+      <c r="E3" t="n">
+        <v>92530.19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -496,6 +507,9 @@
       </c>
       <c r="D4" t="n">
         <v>50792.47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50982.25</v>
       </c>
     </row>
     <row r="5">
@@ -511,6 +525,9 @@
       <c r="D5" t="n">
         <v>22950.86</v>
       </c>
+      <c r="E5" t="n">
+        <v>22992.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -525,6 +542,9 @@
       <c r="D6" t="n">
         <v>61618.36</v>
       </c>
+      <c r="E6" t="n">
+        <v>61620.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -539,6 +559,9 @@
       <c r="D7" t="n">
         <v>42318.28</v>
       </c>
+      <c r="E7" t="n">
+        <v>41751.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -553,6 +576,9 @@
       <c r="D8" t="n">
         <v>9860.85</v>
       </c>
+      <c r="E8" t="n">
+        <v>10093.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -567,6 +593,9 @@
       <c r="D9" t="n">
         <v>197720.18</v>
       </c>
+      <c r="E9" t="n">
+        <v>198224.65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -583,6 +612,9 @@
       <c r="D10" t="n">
         <v>102252.35</v>
       </c>
+      <c r="E10" t="n">
+        <v>101999.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -599,6 +631,9 @@
       <c r="D11" t="n">
         <v>47383.55</v>
       </c>
+      <c r="E11" t="n">
+        <v>47262</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -615,6 +650,9 @@
       <c r="D12" t="n">
         <v>1007.28</v>
       </c>
+      <c r="E12" t="n">
+        <v>771.59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -631,6 +669,9 @@
       <c r="D13" t="n">
         <v>61456.64</v>
       </c>
+      <c r="E13" t="n">
+        <v>61454.99</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -646,6 +687,9 @@
       </c>
       <c r="D14" t="n">
         <v>676023.0600000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>676004.85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>47776.45</v>
       </c>
+      <c r="F2" t="n">
+        <v>47286.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>92530.19</v>
       </c>
+      <c r="F3" t="n">
+        <v>92769.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -510,6 +521,9 @@
       </c>
       <c r="E4" t="n">
         <v>50982.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>51060.56</v>
       </c>
     </row>
     <row r="5">
@@ -528,6 +542,9 @@
       <c r="E5" t="n">
         <v>22992.95</v>
       </c>
+      <c r="F5" t="n">
+        <v>23043.83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +562,9 @@
       <c r="E6" t="n">
         <v>61620.97</v>
       </c>
+      <c r="F6" t="n">
+        <v>61721.87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -562,6 +582,9 @@
       <c r="E7" t="n">
         <v>41751.46</v>
       </c>
+      <c r="F7" t="n">
+        <v>41708.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -579,6 +602,9 @@
       <c r="E8" t="n">
         <v>10093.28</v>
       </c>
+      <c r="F8" t="n">
+        <v>9632.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -596,6 +622,9 @@
       <c r="E9" t="n">
         <v>198224.65</v>
       </c>
+      <c r="F9" t="n">
+        <v>197560.26</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -615,6 +644,9 @@
       <c r="E10" t="n">
         <v>101999.06</v>
       </c>
+      <c r="F10" t="n">
+        <v>102225.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -634,6 +666,9 @@
       <c r="E11" t="n">
         <v>47262</v>
       </c>
+      <c r="F11" t="n">
+        <v>47357.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +688,9 @@
       <c r="E12" t="n">
         <v>771.59</v>
       </c>
+      <c r="F12" t="n">
+        <v>988.4400000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -672,6 +710,9 @@
       <c r="E13" t="n">
         <v>61454.99</v>
       </c>
+      <c r="F13" t="n">
+        <v>61395.82</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -690,6 +731,9 @@
       </c>
       <c r="E14" t="n">
         <v>676004.85</v>
+      </c>
+      <c r="F14" t="n">
+        <v>675354.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>47286.08</v>
       </c>
+      <c r="G2" t="n">
+        <v>45105.82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>92769.48</v>
       </c>
+      <c r="G3" t="n">
+        <v>92673.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,6 +535,9 @@
       </c>
       <c r="F4" t="n">
         <v>51060.56</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50798.59</v>
       </c>
     </row>
     <row r="5">
@@ -545,6 +559,9 @@
       <c r="F5" t="n">
         <v>23043.83</v>
       </c>
+      <c r="G5" t="n">
+        <v>23023.97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +582,9 @@
       <c r="F6" t="n">
         <v>61721.87</v>
       </c>
+      <c r="G6" t="n">
+        <v>61683.96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -585,6 +605,9 @@
       <c r="F7" t="n">
         <v>41708.5</v>
       </c>
+      <c r="G7" t="n">
+        <v>41667.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -605,6 +628,9 @@
       <c r="F8" t="n">
         <v>9632.08</v>
       </c>
+      <c r="G8" t="n">
+        <v>9705.33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -625,6 +651,9 @@
       <c r="F9" t="n">
         <v>197560.26</v>
       </c>
+      <c r="G9" t="n">
+        <v>197890.41</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -647,6 +676,9 @@
       <c r="F10" t="n">
         <v>102225.03</v>
       </c>
+      <c r="G10" t="n">
+        <v>102471.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -669,6 +701,9 @@
       <c r="F11" t="n">
         <v>47357.9</v>
       </c>
+      <c r="G11" t="n">
+        <v>47328.41</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +726,9 @@
       <c r="F12" t="n">
         <v>988.4400000000001</v>
       </c>
+      <c r="G12" t="n">
+        <v>1006.21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -713,6 +751,9 @@
       <c r="F13" t="n">
         <v>61395.82</v>
       </c>
+      <c r="G13" t="n">
+        <v>61214.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -734,6 +775,9 @@
       </c>
       <c r="F14" t="n">
         <v>675354.03</v>
+      </c>
+      <c r="G14" t="n">
+        <v>673354.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>45105.82</v>
       </c>
+      <c r="H2" t="n">
+        <v>45294.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>92673.06</v>
       </c>
+      <c r="H3" t="n">
+        <v>92571.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>50798.59</v>
+      </c>
+      <c r="H4" t="n">
+        <v>51071.88</v>
       </c>
     </row>
     <row r="5">
@@ -562,6 +576,9 @@
       <c r="G5" t="n">
         <v>23023.97</v>
       </c>
+      <c r="H5" t="n">
+        <v>22940.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +602,9 @@
       <c r="G6" t="n">
         <v>61683.96</v>
       </c>
+      <c r="H6" t="n">
+        <v>61517.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="G7" t="n">
         <v>41667.1</v>
       </c>
+      <c r="H7" t="n">
+        <v>41990.55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -631,6 +654,9 @@
       <c r="G8" t="n">
         <v>9705.33</v>
       </c>
+      <c r="H8" t="n">
+        <v>10165.33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -654,6 +680,9 @@
       <c r="G9" t="n">
         <v>197890.41</v>
       </c>
+      <c r="H9" t="n">
+        <v>197683.82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -679,6 +708,9 @@
       <c r="G10" t="n">
         <v>102471.4</v>
       </c>
+      <c r="H10" t="n">
+        <v>102322.42</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -704,6 +736,9 @@
       <c r="G11" t="n">
         <v>47328.41</v>
       </c>
+      <c r="H11" t="n">
+        <v>47355.65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +764,9 @@
       <c r="G12" t="n">
         <v>1006.21</v>
       </c>
+      <c r="H12" t="n">
+        <v>985.55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -754,6 +792,9 @@
       <c r="G13" t="n">
         <v>61214.02</v>
       </c>
+      <c r="H13" t="n">
+        <v>61263.52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -778,6 +819,9 @@
       </c>
       <c r="G14" t="n">
         <v>673354.26</v>
+      </c>
+      <c r="H14" t="n">
+        <v>673898.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>45294.4</v>
       </c>
+      <c r="I2" t="n">
+        <v>43540.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>92571.14</v>
       </c>
+      <c r="I3" t="n">
+        <v>92701.64</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -552,6 +563,9 @@
       </c>
       <c r="H4" t="n">
         <v>51071.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>51187.36</v>
       </c>
     </row>
     <row r="5">
@@ -579,6 +593,9 @@
       <c r="H5" t="n">
         <v>22940.16</v>
       </c>
+      <c r="I5" t="n">
+        <v>23071.56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +622,9 @@
       <c r="H6" t="n">
         <v>61517.8</v>
       </c>
+      <c r="I6" t="n">
+        <v>61697.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -631,6 +651,9 @@
       <c r="H7" t="n">
         <v>41990.55</v>
       </c>
+      <c r="I7" t="n">
+        <v>42132.14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -657,6 +680,9 @@
       <c r="H8" t="n">
         <v>10165.33</v>
       </c>
+      <c r="I8" t="n">
+        <v>10211.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -683,6 +709,9 @@
       <c r="H9" t="n">
         <v>197683.82</v>
       </c>
+      <c r="I9" t="n">
+        <v>192326.78</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -711,6 +740,9 @@
       <c r="H10" t="n">
         <v>102322.42</v>
       </c>
+      <c r="I10" t="n">
+        <v>102344.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -739,6 +771,9 @@
       <c r="H11" t="n">
         <v>47355.65</v>
       </c>
+      <c r="I11" t="n">
+        <v>47347.89</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +802,9 @@
       <c r="H12" t="n">
         <v>985.55</v>
       </c>
+      <c r="I12" t="n">
+        <v>872.83</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -795,6 +833,9 @@
       <c r="H13" t="n">
         <v>61263.52</v>
       </c>
+      <c r="I13" t="n">
+        <v>60675.73</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -822,6 +863,9 @@
       </c>
       <c r="H14" t="n">
         <v>673898.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>667432.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>43540.17</v>
       </c>
+      <c r="J2" t="n">
+        <v>43297.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>92701.64</v>
       </c>
+      <c r="J3" t="n">
+        <v>92789.60000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -566,6 +577,9 @@
       </c>
       <c r="I4" t="n">
         <v>51187.36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50721.98</v>
       </c>
     </row>
     <row r="5">
@@ -596,6 +610,9 @@
       <c r="I5" t="n">
         <v>23071.56</v>
       </c>
+      <c r="J5" t="n">
+        <v>22983.86</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +642,9 @@
       <c r="I6" t="n">
         <v>61697.11</v>
       </c>
+      <c r="J6" t="n">
+        <v>61581.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
       <c r="I7" t="n">
         <v>42132.14</v>
       </c>
+      <c r="J7" t="n">
+        <v>42321.45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -683,6 +706,9 @@
       <c r="I8" t="n">
         <v>10211.25</v>
       </c>
+      <c r="J8" t="n">
+        <v>9878.549999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -712,6 +738,9 @@
       <c r="I9" t="n">
         <v>192326.78</v>
       </c>
+      <c r="J9" t="n">
+        <v>192052.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -743,6 +772,9 @@
       <c r="I10" t="n">
         <v>102344.25</v>
       </c>
+      <c r="J10" t="n">
+        <v>111718.96</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -774,6 +806,9 @@
       <c r="I11" t="n">
         <v>47347.89</v>
       </c>
+      <c r="J11" t="n">
+        <v>47333.33</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -805,6 +840,9 @@
       <c r="I12" t="n">
         <v>872.83</v>
       </c>
+      <c r="J12" t="n">
+        <v>863.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -836,6 +874,9 @@
       <c r="I13" t="n">
         <v>60675.73</v>
       </c>
+      <c r="J13" t="n">
+        <v>61412.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -866,6 +907,9 @@
       </c>
       <c r="I14" t="n">
         <v>667432.98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>675542.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>43297.5</v>
       </c>
+      <c r="K2" t="n">
+        <v>29119.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>92789.60000000001</v>
       </c>
+      <c r="K3" t="n">
+        <v>92757.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +591,9 @@
       </c>
       <c r="J4" t="n">
         <v>50721.98</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51037.99</v>
       </c>
     </row>
     <row r="5">
@@ -613,6 +627,9 @@
       <c r="J5" t="n">
         <v>22983.86</v>
       </c>
+      <c r="K5" t="n">
+        <v>23076.38</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +662,9 @@
       <c r="J6" t="n">
         <v>61581.42</v>
       </c>
+      <c r="K6" t="n">
+        <v>61626.55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +697,9 @@
       <c r="J7" t="n">
         <v>42321.45</v>
       </c>
+      <c r="K7" t="n">
+        <v>41753.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -709,6 +732,9 @@
       <c r="J8" t="n">
         <v>9878.549999999999</v>
       </c>
+      <c r="K8" t="n">
+        <v>10126.36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -741,6 +767,9 @@
       <c r="J9" t="n">
         <v>192052.59</v>
       </c>
+      <c r="K9" t="n">
+        <v>191960.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -775,6 +804,9 @@
       <c r="J10" t="n">
         <v>111718.96</v>
       </c>
+      <c r="K10" t="n">
+        <v>111549.48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -809,6 +841,9 @@
       <c r="J11" t="n">
         <v>47333.33</v>
       </c>
+      <c r="K11" t="n">
+        <v>47343.65</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -843,6 +878,9 @@
       <c r="J12" t="n">
         <v>863.22</v>
       </c>
+      <c r="K12" t="n">
+        <v>826.86</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -877,6 +915,9 @@
       <c r="J13" t="n">
         <v>61412.95</v>
       </c>
+      <c r="K13" t="n">
+        <v>60107.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -910,6 +951,9 @@
       </c>
       <c r="J14" t="n">
         <v>675542.46</v>
+      </c>
+      <c r="K14" t="n">
+        <v>661177.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>29119.17</v>
       </c>
+      <c r="L2" t="n">
+        <v>12392.43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>92757.45</v>
       </c>
+      <c r="L3" t="n">
+        <v>92581.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -594,6 +605,9 @@
       </c>
       <c r="K4" t="n">
         <v>51037.99</v>
+      </c>
+      <c r="L4" t="n">
+        <v>50798.56</v>
       </c>
     </row>
     <row r="5">
@@ -630,6 +644,9 @@
       <c r="K5" t="n">
         <v>23076.38</v>
       </c>
+      <c r="L5" t="n">
+        <v>23038.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +682,9 @@
       <c r="K6" t="n">
         <v>61626.55</v>
       </c>
+      <c r="L6" t="n">
+        <v>61643.88</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -700,6 +720,9 @@
       <c r="K7" t="n">
         <v>41753.78</v>
       </c>
+      <c r="L7" t="n">
+        <v>41908.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -735,6 +758,9 @@
       <c r="K8" t="n">
         <v>10126.36</v>
       </c>
+      <c r="L8" t="n">
+        <v>10203.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -770,6 +796,9 @@
       <c r="K9" t="n">
         <v>191960.32</v>
       </c>
+      <c r="L9" t="n">
+        <v>192315.43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -807,6 +836,9 @@
       <c r="K10" t="n">
         <v>111549.48</v>
       </c>
+      <c r="L10" t="n">
+        <v>111527.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -844,6 +876,9 @@
       <c r="K11" t="n">
         <v>47343.65</v>
       </c>
+      <c r="L11" t="n">
+        <v>47319.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -881,6 +916,9 @@
       <c r="K12" t="n">
         <v>826.86</v>
       </c>
+      <c r="L12" t="n">
+        <v>909.48</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -918,6 +956,9 @@
       <c r="K13" t="n">
         <v>60107.09</v>
       </c>
+      <c r="L13" t="n">
+        <v>58603.42</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -954,6 +995,9 @@
       </c>
       <c r="K14" t="n">
         <v>661177.99</v>
+      </c>
+      <c r="L14" t="n">
+        <v>644637.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CAPX.xlsx
+++ b/backend/src/excel_handler/files/CAPX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>12392.43</v>
       </c>
+      <c r="M2" t="n">
+        <v>12441.78</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>92581.25</v>
       </c>
+      <c r="M3" t="n">
+        <v>92554.78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -608,6 +619,9 @@
       </c>
       <c r="L4" t="n">
         <v>50798.56</v>
+      </c>
+      <c r="M4" t="n">
+        <v>51030.57</v>
       </c>
     </row>
     <row r="5">
@@ -647,6 +661,9 @@
       <c r="L5" t="n">
         <v>23038.9</v>
       </c>
+      <c r="M5" t="n">
+        <v>23039.94</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +702,9 @@
       <c r="L6" t="n">
         <v>61643.88</v>
       </c>
+      <c r="M6" t="n">
+        <v>61500.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +743,9 @@
       <c r="L7" t="n">
         <v>41908.02</v>
       </c>
+      <c r="M7" t="n">
+        <v>41857.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -761,6 +784,9 @@
       <c r="L8" t="n">
         <v>10203.35</v>
       </c>
+      <c r="M8" t="n">
+        <v>10334.58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -799,6 +825,9 @@
       <c r="L9" t="n">
         <v>192315.43</v>
       </c>
+      <c r="M9" t="n">
+        <v>186872.65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -839,6 +868,9 @@
       <c r="L10" t="n">
         <v>111527.04</v>
       </c>
+      <c r="M10" t="n">
+        <v>111552.73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -879,6 +911,9 @@
       <c r="L11" t="n">
         <v>47319.28</v>
       </c>
+      <c r="M11" t="n">
+        <v>47276.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -919,6 +954,9 @@
       <c r="L12" t="n">
         <v>909.48</v>
       </c>
+      <c r="M12" t="n">
+        <v>923.78</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -959,6 +997,9 @@
       <c r="L13" t="n">
         <v>58603.42</v>
       </c>
+      <c r="M13" t="n">
+        <v>58125.87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -998,6 +1039,9 @@
       </c>
       <c r="L14" t="n">
         <v>644637.62</v>
+      </c>
+      <c r="M14" t="n">
+        <v>639384.6</v>
       </c>
     </row>
   </sheetData>
